--- a/tests/fixtures/orderforms/1508.22.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.22.fastq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E40DD-6AD3-A941-A972-8D376E785B1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F581C9-B037-9245-8FD8-141ED0CAEA12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="4460" windowWidth="25420" windowHeight="15940" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="800" windowWidth="33940" windowHeight="19260" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="638">
   <si>
     <t>Document name</t>
   </si>
@@ -2530,36 +2530,6 @@
     <t>s36</t>
   </si>
   <si>
-    <t>s37</t>
-  </si>
-  <si>
-    <t>s38</t>
-  </si>
-  <si>
-    <t>s39</t>
-  </si>
-  <si>
-    <t>s40</t>
-  </si>
-  <si>
-    <t>s41</t>
-  </si>
-  <si>
-    <t>s42</t>
-  </si>
-  <si>
-    <t>s43</t>
-  </si>
-  <si>
-    <t>s44</t>
-  </si>
-  <si>
-    <t>s45</t>
-  </si>
-  <si>
-    <t>s46</t>
-  </si>
-  <si>
     <t>c2</t>
   </si>
   <si>
@@ -2660,36 +2630,6 @@
   </si>
   <si>
     <t>c35</t>
-  </si>
-  <si>
-    <t>c36</t>
-  </si>
-  <si>
-    <t>c37</t>
-  </si>
-  <si>
-    <t>c38</t>
-  </si>
-  <si>
-    <t>c39</t>
-  </si>
-  <si>
-    <t>c40</t>
-  </si>
-  <si>
-    <t>c41</t>
-  </si>
-  <si>
-    <t>c42</t>
-  </si>
-  <si>
-    <t>c43</t>
-  </si>
-  <si>
-    <t>c44</t>
-  </si>
-  <si>
-    <t>c45</t>
   </si>
   <si>
     <t>plate1</t>
@@ -4779,7 +4719,7 @@
   <dimension ref="A1:AMM395"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D60"/>
+      <selection activeCell="A51" sqref="A51:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1"/>
@@ -12465,7 +12405,7 @@
       </c>
       <c r="N15" s="87"/>
       <c r="O15" s="88" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="P15" s="107" t="s">
         <v>96</v>
@@ -12480,7 +12420,7 @@
       <c r="X15" s="108"/>
       <c r="Y15" s="90"/>
       <c r="Z15" s="109" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="AA15" s="92"/>
       <c r="AB15" s="169" t="s">
@@ -12498,13 +12438,13 @@
       </c>
       <c r="AG15" s="61"/>
       <c r="AH15" s="88" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="AI15" s="110">
         <v>5</v>
       </c>
       <c r="AJ15" s="172" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -14568,7 +14508,7 @@
         <v>135</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G17" s="85" t="s">
         <v>112</v>
@@ -15622,7 +15562,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="G18" s="85" t="s">
         <v>112</v>
@@ -16676,7 +16616,7 @@
         <v>531</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G19" s="85" t="s">
         <v>112</v>
@@ -17730,7 +17670,7 @@
         <v>140</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G20" s="85" t="s">
         <v>112</v>
@@ -18784,7 +18724,7 @@
         <v>518</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G21" s="85" t="s">
         <v>112</v>
@@ -19838,7 +19778,7 @@
         <v>521</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="G22" s="85" t="s">
         <v>112</v>
@@ -20892,7 +20832,7 @@
         <v>522</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G23" s="85" t="s">
         <v>112</v>
@@ -21946,7 +21886,7 @@
         <v>523</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G24" s="85" t="s">
         <v>112</v>
@@ -23000,7 +22940,7 @@
         <v>524</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G25" s="85" t="s">
         <v>112</v>
@@ -24054,7 +23994,7 @@
         <v>525</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G26" s="85" t="s">
         <v>112</v>
@@ -25108,7 +25048,7 @@
         <v>526</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G27" s="85" t="s">
         <v>112</v>
@@ -25172,7 +25112,7 @@
         <v>100</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="G28" s="85" t="s">
         <v>112</v>
@@ -26226,7 +26166,7 @@
         <v>155</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G29" s="85" t="s">
         <v>112</v>
@@ -26234,7 +26174,9 @@
       <c r="H29" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="167"/>
+      <c r="I29" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J29" s="104" t="s">
         <v>121</v>
       </c>
@@ -27280,7 +27222,7 @@
         <v>160</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="G30" s="85" t="s">
         <v>112</v>
@@ -27288,7 +27230,9 @@
       <c r="H30" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="103"/>
+      <c r="I30" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J30" s="104" t="s">
         <v>121</v>
       </c>
@@ -28334,7 +28278,7 @@
         <v>165</v>
       </c>
       <c r="F31" s="82" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G31" s="85" t="s">
         <v>112</v>
@@ -28342,7 +28286,9 @@
       <c r="H31" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="103"/>
+      <c r="I31" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J31" s="104" t="s">
         <v>121</v>
       </c>
@@ -29388,7 +29334,7 @@
         <v>170</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G32" s="85" t="s">
         <v>112</v>
@@ -29396,7 +29342,9 @@
       <c r="H32" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="103"/>
+      <c r="I32" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J32" s="104" t="s">
         <v>121</v>
       </c>
@@ -30442,7 +30390,7 @@
         <v>175</v>
       </c>
       <c r="F33" s="82" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G33" s="85" t="s">
         <v>112</v>
@@ -30450,7 +30398,9 @@
       <c r="H33" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="103"/>
+      <c r="I33" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J33" s="104" t="s">
         <v>121</v>
       </c>
@@ -31496,7 +31446,7 @@
         <v>179</v>
       </c>
       <c r="F34" s="82" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="G34" s="85" t="s">
         <v>112</v>
@@ -31504,7 +31454,9 @@
       <c r="H34" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="103"/>
+      <c r="I34" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J34" s="104" t="s">
         <v>121</v>
       </c>
@@ -32550,7 +32502,7 @@
         <v>183</v>
       </c>
       <c r="F35" s="82" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G35" s="85" t="s">
         <v>112</v>
@@ -32558,7 +32510,9 @@
       <c r="H35" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I35" s="103"/>
+      <c r="I35" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J35" s="104" t="s">
         <v>121</v>
       </c>
@@ -33604,7 +33558,7 @@
         <v>187</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="G36" s="85" t="s">
         <v>112</v>
@@ -33612,7 +33566,9 @@
       <c r="H36" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="103"/>
+      <c r="I36" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J36" s="104" t="s">
         <v>121</v>
       </c>
@@ -33668,7 +33624,7 @@
         <v>191</v>
       </c>
       <c r="F37" s="82" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G37" s="85" t="s">
         <v>112</v>
@@ -33676,7 +33632,9 @@
       <c r="H37" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I37" s="103"/>
+      <c r="I37" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J37" s="104" t="s">
         <v>121</v>
       </c>
@@ -33732,7 +33690,7 @@
         <v>195</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G38" s="85" t="s">
         <v>112</v>
@@ -33740,7 +33698,9 @@
       <c r="H38" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I38" s="103"/>
+      <c r="I38" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J38" s="104" t="s">
         <v>121</v>
       </c>
@@ -33796,7 +33756,7 @@
         <v>199</v>
       </c>
       <c r="F39" s="82" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G39" s="85" t="s">
         <v>112</v>
@@ -33804,7 +33764,9 @@
       <c r="H39" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="103"/>
+      <c r="I39" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J39" s="104" t="s">
         <v>121</v>
       </c>
@@ -34850,7 +34812,7 @@
         <v>203</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="G40" s="85" t="s">
         <v>112</v>
@@ -34858,7 +34820,9 @@
       <c r="H40" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I40" s="103"/>
+      <c r="I40" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J40" s="104" t="s">
         <v>121</v>
       </c>
@@ -35904,7 +35868,7 @@
         <v>211</v>
       </c>
       <c r="F41" s="82" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G41" s="85" t="s">
         <v>112</v>
@@ -35912,7 +35876,9 @@
       <c r="H41" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="103"/>
+      <c r="I41" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J41" s="104" t="s">
         <v>121</v>
       </c>
@@ -36958,7 +36924,7 @@
         <v>215</v>
       </c>
       <c r="F42" s="82" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="G42" s="85" t="s">
         <v>112</v>
@@ -36966,7 +36932,9 @@
       <c r="H42" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="103"/>
+      <c r="I42" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J42" s="104" t="s">
         <v>121</v>
       </c>
@@ -38012,7 +37980,7 @@
         <v>219</v>
       </c>
       <c r="F43" s="82" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G43" s="85" t="s">
         <v>112</v>
@@ -38020,7 +37988,9 @@
       <c r="H43" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I43" s="103"/>
+      <c r="I43" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J43" s="104" t="s">
         <v>121</v>
       </c>
@@ -39066,7 +39036,7 @@
         <v>222</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="G44" s="85" t="s">
         <v>112</v>
@@ -39074,7 +39044,9 @@
       <c r="H44" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="103"/>
+      <c r="I44" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J44" s="104" t="s">
         <v>121</v>
       </c>
@@ -40120,7 +40092,7 @@
         <v>226</v>
       </c>
       <c r="F45" s="82" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G45" s="85" t="s">
         <v>112</v>
@@ -40128,7 +40100,9 @@
       <c r="H45" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I45" s="103"/>
+      <c r="I45" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J45" s="104" t="s">
         <v>121</v>
       </c>
@@ -41174,7 +41148,7 @@
         <v>230</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="G46" s="85" t="s">
         <v>112</v>
@@ -41182,7 +41156,9 @@
       <c r="H46" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="103"/>
+      <c r="I46" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J46" s="104" t="s">
         <v>121</v>
       </c>
@@ -42228,7 +42204,7 @@
         <v>234</v>
       </c>
       <c r="F47" s="82" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G47" s="85" t="s">
         <v>112</v>
@@ -42236,7 +42212,9 @@
       <c r="H47" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I47" s="103"/>
+      <c r="I47" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J47" s="104" t="s">
         <v>121</v>
       </c>
@@ -43282,7 +43260,7 @@
         <v>238</v>
       </c>
       <c r="F48" s="82" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G48" s="85" t="s">
         <v>112</v>
@@ -43290,7 +43268,9 @@
       <c r="H48" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="103"/>
+      <c r="I48" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J48" s="104" t="s">
         <v>121</v>
       </c>
@@ -44336,7 +44316,7 @@
         <v>242</v>
       </c>
       <c r="F49" s="82" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G49" s="85" t="s">
         <v>112</v>
@@ -44344,7 +44324,9 @@
       <c r="H49" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="103"/>
+      <c r="I49" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J49" s="104" t="s">
         <v>121</v>
       </c>
@@ -45390,7 +45372,7 @@
         <v>246</v>
       </c>
       <c r="F50" s="82" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="G50" s="85" t="s">
         <v>112</v>
@@ -45398,7 +45380,9 @@
       <c r="H50" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I50" s="103"/>
+      <c r="I50" s="169" t="s">
+        <v>92</v>
+      </c>
       <c r="J50" s="104" t="s">
         <v>121</v>
       </c>
@@ -45438,43 +45422,19 @@
       <c r="AJ50" s="88"/>
     </row>
     <row r="51" spans="1:1026" ht="25" customHeight="1">
-      <c r="A51" s="82" t="s">
-        <v>600</v>
-      </c>
-      <c r="B51" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D51" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E51" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="F51" s="82" t="s">
-        <v>644</v>
-      </c>
-      <c r="G51" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I51" s="103"/>
-      <c r="J51" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K51" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L51" s="105">
-        <v>1</v>
-      </c>
-      <c r="M51" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A51" s="82"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="106"/>
       <c r="N51" s="87"/>
       <c r="O51" s="88"/>
       <c r="P51" s="107"/>
@@ -46490,43 +46450,19 @@
       <c r="AML51"/>
     </row>
     <row r="52" spans="1:1026" ht="25" customHeight="1">
-      <c r="A52" s="82" t="s">
-        <v>601</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E52" s="84" t="s">
-        <v>393</v>
-      </c>
-      <c r="F52" s="82" t="s">
-        <v>645</v>
-      </c>
-      <c r="G52" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K52" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L52" s="105">
-        <v>1</v>
-      </c>
-      <c r="M52" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A52" s="82"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="106"/>
       <c r="N52" s="87"/>
       <c r="O52" s="88"/>
       <c r="P52" s="107"/>
@@ -47542,43 +47478,19 @@
       <c r="AML52"/>
     </row>
     <row r="53" spans="1:1026" ht="25" customHeight="1">
-      <c r="A53" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="B53" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E53" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="F53" s="82" t="s">
-        <v>646</v>
-      </c>
-      <c r="G53" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I53" s="103"/>
-      <c r="J53" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K53" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L53" s="105">
-        <v>1</v>
-      </c>
-      <c r="M53" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A53" s="82"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="106"/>
       <c r="N53" s="87"/>
       <c r="O53" s="88"/>
       <c r="P53" s="107"/>
@@ -48594,43 +48506,19 @@
       <c r="AML53"/>
     </row>
     <row r="54" spans="1:1026" ht="25" customHeight="1">
-      <c r="A54" s="82" t="s">
-        <v>603</v>
-      </c>
-      <c r="B54" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D54" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E54" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="F54" s="82" t="s">
-        <v>647</v>
-      </c>
-      <c r="G54" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I54" s="103"/>
-      <c r="J54" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K54" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L54" s="105">
-        <v>1</v>
-      </c>
-      <c r="M54" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A54" s="82"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
       <c r="N54" s="87"/>
       <c r="O54" s="88"/>
       <c r="P54" s="107"/>
@@ -49646,43 +49534,19 @@
       <c r="AML54"/>
     </row>
     <row r="55" spans="1:1026" ht="25" customHeight="1">
-      <c r="A55" s="82" t="s">
-        <v>604</v>
-      </c>
-      <c r="B55" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D55" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E55" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="F55" s="82" t="s">
-        <v>648</v>
-      </c>
-      <c r="G55" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I55" s="103"/>
-      <c r="J55" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K55" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L55" s="105">
-        <v>1</v>
-      </c>
-      <c r="M55" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A55" s="82"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="106"/>
       <c r="N55" s="87"/>
       <c r="O55" s="88"/>
       <c r="P55" s="107"/>
@@ -50698,43 +50562,19 @@
       <c r="AML55"/>
     </row>
     <row r="56" spans="1:1026" ht="25" customHeight="1">
-      <c r="A56" s="82" t="s">
-        <v>605</v>
-      </c>
-      <c r="B56" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D56" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E56" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="F56" s="82" t="s">
-        <v>649</v>
-      </c>
-      <c r="G56" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I56" s="103"/>
-      <c r="J56" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K56" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L56" s="105">
-        <v>1</v>
-      </c>
-      <c r="M56" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A56" s="82"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="106"/>
       <c r="N56" s="87"/>
       <c r="O56" s="88"/>
       <c r="P56" s="107"/>
@@ -51750,43 +51590,19 @@
       <c r="AML56"/>
     </row>
     <row r="57" spans="1:1026" ht="25" customHeight="1">
-      <c r="A57" s="82" t="s">
-        <v>606</v>
-      </c>
-      <c r="B57" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E57" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="82" t="s">
-        <v>650</v>
-      </c>
-      <c r="G57" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I57" s="103"/>
-      <c r="J57" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K57" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L57" s="105">
-        <v>1</v>
-      </c>
-      <c r="M57" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A57" s="82"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="106"/>
       <c r="N57" s="87"/>
       <c r="O57" s="88"/>
       <c r="P57" s="107"/>
@@ -52802,43 +52618,19 @@
       <c r="AML57"/>
     </row>
     <row r="58" spans="1:1026" ht="25" customHeight="1">
-      <c r="A58" s="82" t="s">
-        <v>607</v>
-      </c>
-      <c r="B58" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D58" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E58" s="166" t="s">
-        <v>394</v>
-      </c>
-      <c r="F58" s="82" t="s">
-        <v>651</v>
-      </c>
-      <c r="G58" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" s="103"/>
-      <c r="J58" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K58" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L58" s="105">
-        <v>1</v>
-      </c>
-      <c r="M58" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A58" s="82"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="106"/>
       <c r="N58" s="87"/>
       <c r="O58" s="88"/>
       <c r="P58" s="107"/>
@@ -53854,43 +53646,19 @@
       <c r="AML58"/>
     </row>
     <row r="59" spans="1:1026" ht="25" customHeight="1">
-      <c r="A59" s="82" t="s">
-        <v>608</v>
-      </c>
-      <c r="B59" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D59" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E59" s="166" t="s">
-        <v>396</v>
-      </c>
-      <c r="F59" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="G59" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I59" s="103"/>
-      <c r="J59" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K59" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L59" s="105">
-        <v>1</v>
-      </c>
-      <c r="M59" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="106"/>
       <c r="N59" s="87"/>
       <c r="O59" s="88"/>
       <c r="P59" s="107"/>
@@ -54906,43 +54674,19 @@
       <c r="AML59"/>
     </row>
     <row r="60" spans="1:1026" ht="25" customHeight="1">
-      <c r="A60" s="82" t="s">
-        <v>609</v>
-      </c>
-      <c r="B60" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="D60" s="84" t="s">
-        <v>538</v>
-      </c>
-      <c r="E60" s="166" t="s">
-        <v>395</v>
-      </c>
-      <c r="F60" s="82" t="s">
-        <v>653</v>
-      </c>
-      <c r="G60" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60" s="103"/>
-      <c r="J60" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K60" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L60" s="105">
-        <v>1</v>
-      </c>
-      <c r="M60" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A60" s="82"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="106"/>
       <c r="N60" s="87"/>
       <c r="O60" s="88"/>
       <c r="P60" s="107"/>
@@ -70787,7 +70531,7 @@
   <dimension ref="A2:AM203"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
